--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\Reorganized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D72BC0B-BF01-4309-933B-2A94A8862112}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
   <sheets>
     <sheet name="emission_cap" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D72BC0B-BF01-4309-933B-2A94A8862112}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936F106E-2B52-4203-B5F9-6C090818494F}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
   <sheets>
     <sheet name="emission_cap" sheetId="1" r:id="rId1"/>
+    <sheet name="emission_cap_old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -127,25 +128,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D256C62D-865F-4C13-B052-63522A650A5B}" name="Table2" displayName="Table2" ref="A1:G6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D256C62D-865F-4C13-B052-63522A650A5B}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{D256C62D-865F-4C13-B052-63522A650A5B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7F96D572-4570-4F60-A9A1-904132BB541B}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{DE6B5A1C-7538-42F6-ABF3-515F2EBC5CD5}" name="Percentage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0C2B80E-B1B5-4387-8496-76E862E47ED5}" name="Table23" displayName="Table23" ref="A1:G6" totalsRowShown="0">
   <autoFilter ref="A1:G6" xr:uid="{D256C62D-865F-4C13-B052-63522A650A5B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7F96D572-4570-4F60-A9A1-904132BB541B}" name="Year"/>
-    <tableColumn id="2" xr3:uid="{DE6B5A1C-7538-42F6-ABF3-515F2EBC5CD5}" name="Percentage"/>
-    <tableColumn id="3" xr3:uid="{7EB022A4-E8DF-441A-AAA4-58F376C61C86}" name="Cap" dataDxfId="4">
-      <calculatedColumnFormula>3993628101243*Table2[[#This Row],[Percentage]]/100</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{0B523C25-8787-4EC6-A480-C3EC90D77CB5}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{5DD30B3C-8904-44B2-B3CF-0C70D0E9EF63}" name="Percentage"/>
+    <tableColumn id="3" xr3:uid="{7CD3AD34-0767-473C-96D8-D0985B204B0D}" name="Cap" dataDxfId="4">
+      <calculatedColumnFormula>3993628101243*Table23[[#This Row],[Percentage]]/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{313F3C24-3B06-4845-966F-9DFB110CF84B}" name="Cap1" dataDxfId="3">
-      <calculatedColumnFormula>Table2[[#This Row],[Cap]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{201B5FF7-4135-44D9-B890-A0B0F82A7306}" name="Cap1" dataDxfId="3">
+      <calculatedColumnFormula>Table23[[#This Row],[Cap]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1F72926D-ACF2-4107-A30F-8D1CCB688DAD}" name="Cap2" dataDxfId="2">
-      <calculatedColumnFormula>Table2[[#This Row],[Cap]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{0F971932-B391-4230-AFFC-911D6E37D691}" name="Cap2" dataDxfId="2">
+      <calculatedColumnFormula>Table23[[#This Row],[Cap]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{31FEE250-AD68-4E06-B817-435862AF7799}" name="Cap3" dataDxfId="1">
-      <calculatedColumnFormula>Table2[[#This Row],[Cap]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{BCAB3E43-BFB2-4112-942D-D886EDDA23D3}" name="Cap3" dataDxfId="1">
+      <calculatedColumnFormula>Table23[[#This Row],[Cap]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8CB0F028-8EF7-4D1F-BD69-E0F1C223D862}" name="Cap4" dataDxfId="0">
-      <calculatedColumnFormula>Table2[[#This Row],[Cap]]</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{2EACD48D-81FB-45D4-A131-69CCB1D8A30E}" name="Cap4" dataDxfId="0">
+      <calculatedColumnFormula>Table23[[#This Row],[Cap]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -449,10 +461,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EBCBC0-2B91-43D6-AC7C-56F00154A912}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2025</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2030</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2040</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2050</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B246EE6B-5557-4EAD-A790-111CD27D0E1D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,23 +573,23 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <f>3993628101243*Table2[[#This Row],[Percentage]]/100</f>
+        <f>3993628101243*Table23[[#This Row],[Percentage]]/100</f>
         <v>3993628101243</v>
       </c>
       <c r="D2">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>3993628101243</v>
       </c>
       <c r="E2">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>3993628101243</v>
       </c>
       <c r="F2">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>3993628101243</v>
       </c>
       <c r="G2">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>3993628101243</v>
       </c>
     </row>
@@ -519,23 +601,23 @@
         <v>75</v>
       </c>
       <c r="C3">
-        <f>3993628101243*Table2[[#This Row],[Percentage]]/100</f>
+        <f>3993628101243*Table23[[#This Row],[Percentage]]/100</f>
         <v>2995221075932.25</v>
       </c>
       <c r="D3">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>2995221075932.25</v>
       </c>
       <c r="E3">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>2995221075932.25</v>
       </c>
       <c r="F3">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>2995221075932.25</v>
       </c>
       <c r="G3">
-        <f>Table2[[#This Row],[Cap]]</f>
+        <f>Table23[[#This Row],[Cap]]</f>
         <v>2995221075932.25</v>
       </c>
     </row>
@@ -547,7 +629,7 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <f>3993628101243*Table2[[#This Row],[Percentage]]/100</f>
+        <f>3993628101243*Table23[[#This Row],[Percentage]]/100</f>
         <v>1996814050621.5</v>
       </c>
       <c r="D4">
@@ -575,7 +657,7 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <f>3993628101243*Table2[[#This Row],[Percentage]]/100</f>
+        <f>3993628101243*Table23[[#This Row],[Percentage]]/100</f>
         <v>998407025310.75</v>
       </c>
       <c r="D5">
@@ -603,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>3993628101243*Table2[[#This Row],[Percentage]]/100</f>
+        <f>3993628101243*Table23[[#This Row],[Percentage]]/100</f>
         <v>0</v>
       </c>
       <c r="D6">

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936F106E-2B52-4203-B5F9-6C090818494F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2AD059-BDF9-47CA-B761-85DFD4B6B955}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
+    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
   <sheets>
     <sheet name="emission_cap" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
         <v>2050</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2AD059-BDF9-47CA-B761-85DFD4B6B955}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D3E0CE-68E3-4183-8876-6D95B0ADF7A3}"/>
   <bookViews>
     <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
@@ -509,7 +509,7 @@
         <v>2040</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>2050</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E49E95E7-A7D8-49F5-9616-FF58770DCDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D3E0CE-68E3-4183-8876-6D95B0ADF7A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AABF0D-65A5-43CB-B2B3-8E136BB701D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="0" windowWidth="43050" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
   <sheets>
     <sheet name="emission_cap" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -534,7 +534,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3">
         <v>75</v>

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AABF0D-65A5-43CB-B2B3-8E136BB701D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E4AABF0D-65A5-43CB-B2B3-8E136BB701D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163AB580-BEC2-413E-B8EE-DA1A9E17CDD4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
   <sheets>
     <sheet name="emission_cap" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>2040</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +517,7 @@
         <v>2050</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AABF0D-65A5-43CB-B2B3-8E136BB701D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CA3D1-A1D2-4EB2-A416-ADB5F4F9B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74CA3D1-A1D2-4EB2-A416-ADB5F4F9B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBCB3FC-22D3-4D19-AE40-ED17EFF9D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>2030</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/emission_cap.xlsx
+++ b/Data/emission_cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBCB3FC-22D3-4D19-AE40-ED17EFF9D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8EBCB3FC-22D3-4D19-AE40-ED17EFF9D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E523E8D4-6CE8-48FA-86C6-C1BB9CC3C0D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
+    <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" xr2:uid="{6291FB66-00B5-4A39-923B-42FCF76189FF}"/>
   </bookViews>
   <sheets>
     <sheet name="emission_cap" sheetId="1" r:id="rId1"/>
@@ -63,8 +63,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,12 +473,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +493,7 @@
       <c r="A2">
         <v>2022</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>100</v>
       </c>
     </row>
@@ -493,15 +502,16 @@
         <v>2026</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <f>B2/2+B4/2</f>
+        <v>72.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2030</v>
       </c>
-      <c r="B4">
-        <v>55</v>
+      <c r="B4" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,14 +519,15 @@
         <v>2040</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <f>(B4+B6)/2</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
     </row>
